--- a/sputnik/personal/cel/cel117.xlsx
+++ b/sputnik/personal/cel/cel117.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -218,6 +218,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -528,7 +529,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -652,9 +653,15 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="19">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1000</v>
+      </c>
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/cel/cel117.xlsx
+++ b/sputnik/personal/cel/cel117.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -529,7 +529,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -665,10 +665,16 @@
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="19">
+        <v>44152</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="13">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel117.xlsx
+++ b/sputnik/personal/cel/cel117.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -174,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -219,6 +225,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -526,10 +534,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A13" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -665,16 +673,82 @@
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="20">
         <v>44152</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="13">
+      <c r="C12" s="21"/>
+      <c r="D12" s="14">
         <v>1000</v>
       </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>44317</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11">
+        <v>170</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel117.xlsx
+++ b/sputnik/personal/cel/cel117.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C14"/>
+      <selection activeCell="C13" sqref="C13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -691,10 +694,10 @@
       <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="13">
         <v>1000</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -703,16 +706,22 @@
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="13">
         <v>170</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="19">
+        <v>44439</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
